--- a/WorkBot/main/backend/ordering/OrderFiles/US Foods/US Foods_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/US Foods/US Foods_Triphammer_20250704.xlsx
@@ -451,351 +451,351 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7649528</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dirty Chip - Cracked Pepper (2oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8696528</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dirty Chip - Funky Fusion Pot (2oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53.70</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8910127</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dirty Chip - Maui Onion Pot (2oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1438993</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dirty Chip - Mesquite Barbecue (2oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2559979</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dirty Chip - Salt &amp; Vinegar (2oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6426621</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dirty Chip - Sea Salted (2oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.60</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1025748</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Peanut Butter - Creamy</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.45</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>54.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1667864</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Employee Water</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4688660</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hals - Black Cherry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6435380</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hals - Lime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4858587</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hals - Original</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1138748</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nirvana Water - 1.5 Liter</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21.34</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3357597</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRZ Fruit - Strawberry (Whole)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>43.74</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>87.48</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
